--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H2">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I2">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J2">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>5.856223966789916</v>
+        <v>8.554232788778499</v>
       </c>
       <c r="R2">
-        <v>5.856223966789916</v>
+        <v>34.216931155114</v>
       </c>
       <c r="S2">
-        <v>0.02254525857469921</v>
+        <v>0.02023043448635503</v>
       </c>
       <c r="T2">
-        <v>0.02254525857469921</v>
+        <v>0.01131169482507862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H3">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I3">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J3">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>3.963095908212798</v>
+        <v>6.173013476455999</v>
       </c>
       <c r="R3">
-        <v>3.963095908212798</v>
+        <v>37.038080858736</v>
       </c>
       <c r="S3">
-        <v>0.01525710466568213</v>
+        <v>0.01459894157692924</v>
       </c>
       <c r="T3">
-        <v>0.01525710466568213</v>
+        <v>0.01224433207295359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H4">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I4">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J4">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>2.98987185420039</v>
+        <v>4.393717528989</v>
       </c>
       <c r="R4">
-        <v>2.98987185420039</v>
+        <v>26.362305173934</v>
       </c>
       <c r="S4">
-        <v>0.01151039209572999</v>
+        <v>0.01039097448205571</v>
       </c>
       <c r="T4">
-        <v>0.01151039209572999</v>
+        <v>0.008715052488526975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H5">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I5">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J5">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>2.811224884507351</v>
+        <v>4.139224865528333</v>
       </c>
       <c r="R5">
-        <v>2.811224884507351</v>
+        <v>24.83534919317</v>
       </c>
       <c r="S5">
-        <v>0.01082263798178961</v>
+        <v>0.009789109033391181</v>
       </c>
       <c r="T5">
-        <v>0.01082263798178961</v>
+        <v>0.008210259700786001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H6">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I6">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J6">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>4.130466907804245</v>
+        <v>6.327330902467999</v>
       </c>
       <c r="R6">
-        <v>4.130466907804245</v>
+        <v>37.96398541480799</v>
       </c>
       <c r="S6">
-        <v>0.01590144861241193</v>
+        <v>0.01496389640737693</v>
       </c>
       <c r="T6">
-        <v>0.01590144861241193</v>
+        <v>0.01255042468330363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H7">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I7">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J7">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>4.966315026432217</v>
+        <v>7.272011863916499</v>
       </c>
       <c r="R7">
-        <v>4.966315026432217</v>
+        <v>29.088047455666</v>
       </c>
       <c r="S7">
-        <v>0.01911929206759881</v>
+        <v>0.01719803087308391</v>
       </c>
       <c r="T7">
-        <v>0.01911929206759881</v>
+        <v>0.009616149221106327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H8">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I8">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J8">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>35.50552617783212</v>
+        <v>51.90152689760134</v>
       </c>
       <c r="R8">
-        <v>35.50552617783212</v>
+        <v>311.409161385608</v>
       </c>
       <c r="S8">
-        <v>0.1366889779232197</v>
+        <v>0.122745132798011</v>
       </c>
       <c r="T8">
-        <v>0.1366889779232197</v>
+        <v>0.1029480225260113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H9">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I9">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J9">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>24.02773635575961</v>
+        <v>37.45383518295466</v>
       </c>
       <c r="R9">
-        <v>24.02773635575961</v>
+        <v>337.084516646592</v>
       </c>
       <c r="S9">
-        <v>0.09250184627112885</v>
+        <v>0.08857689259117066</v>
       </c>
       <c r="T9">
-        <v>0.09250184627112885</v>
+        <v>0.1114359778578652</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H10">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I10">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J10">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>18.12720517344989</v>
+        <v>26.658223378072</v>
       </c>
       <c r="R10">
-        <v>18.12720517344989</v>
+        <v>239.924010402648</v>
       </c>
       <c r="S10">
-        <v>0.06978601402365284</v>
+        <v>0.06304568216569589</v>
       </c>
       <c r="T10">
-        <v>0.06978601402365284</v>
+        <v>0.07931591452724773</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H11">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I11">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J11">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>17.04409177222124</v>
+        <v>25.11412723947111</v>
       </c>
       <c r="R11">
-        <v>17.04409177222124</v>
+        <v>226.02714515524</v>
       </c>
       <c r="S11">
-        <v>0.06561625005374662</v>
+        <v>0.05939395365375068</v>
       </c>
       <c r="T11">
-        <v>0.06561625005374662</v>
+        <v>0.07472178251724058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H12">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I12">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J12">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>25.04248501310331</v>
+        <v>38.39013306433066</v>
       </c>
       <c r="R12">
-        <v>25.04248501310331</v>
+        <v>345.511197578976</v>
       </c>
       <c r="S12">
-        <v>0.09640842002887451</v>
+        <v>0.0907912013920415</v>
       </c>
       <c r="T12">
-        <v>0.09640842002887451</v>
+        <v>0.1142217344958093</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H13">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I13">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J13">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>30.11012372107177</v>
+        <v>44.12184338142534</v>
       </c>
       <c r="R13">
-        <v>30.11012372107177</v>
+        <v>264.731060288552</v>
       </c>
       <c r="S13">
-        <v>0.1159177874441597</v>
+        <v>0.1043464778181004</v>
       </c>
       <c r="T13">
-        <v>0.1159177874441597</v>
+        <v>0.08751681882657757</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H14">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I14">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J14">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>10.1530910964813</v>
+        <v>2.337052100190167</v>
       </c>
       <c r="R14">
-        <v>10.1530910964813</v>
+        <v>14.022312601141</v>
       </c>
       <c r="S14">
-        <v>0.03908731383921452</v>
+        <v>0.005527039136241098</v>
       </c>
       <c r="T14">
-        <v>0.03908731383921452</v>
+        <v>0.004635603355745563</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H15">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I15">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J15">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>6.870924679172249</v>
+        <v>1.686493045709333</v>
       </c>
       <c r="R15">
-        <v>6.870924679172249</v>
+        <v>15.178437411384</v>
       </c>
       <c r="S15">
-        <v>0.02645164775419826</v>
+        <v>0.003988491769556808</v>
       </c>
       <c r="T15">
-        <v>0.02645164775419826</v>
+        <v>0.005017803938664179</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H16">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I16">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J16">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>5.183620277272605</v>
+        <v>1.200381966719</v>
       </c>
       <c r="R16">
-        <v>5.183620277272605</v>
+        <v>10.803437700471</v>
       </c>
       <c r="S16">
-        <v>0.01995587261807286</v>
+        <v>0.002838857596693765</v>
       </c>
       <c r="T16">
-        <v>0.01995587261807286</v>
+        <v>0.003571483070047691</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H17">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I17">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J17">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>4.873895279101472</v>
+        <v>1.130853508900556</v>
       </c>
       <c r="R17">
-        <v>4.873895279101472</v>
+        <v>10.177681580105</v>
       </c>
       <c r="S17">
-        <v>0.01876349503647499</v>
+        <v>0.002674425444148359</v>
       </c>
       <c r="T17">
-        <v>0.01876349503647499</v>
+        <v>0.003364615825395699</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H18">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I18">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J18">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>7.161100228365355</v>
+        <v>1.728653210561333</v>
       </c>
       <c r="R18">
-        <v>7.161100228365355</v>
+        <v>15.557878895052</v>
       </c>
       <c r="S18">
-        <v>0.02756876397545508</v>
+        <v>0.004088198952425525</v>
       </c>
       <c r="T18">
-        <v>0.02756876397545508</v>
+        <v>0.005143242606666583</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H19">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I19">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J19">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>8.610232320884036</v>
+        <v>1.986743991988167</v>
       </c>
       <c r="R19">
-        <v>8.610232320884036</v>
+        <v>11.920463951929</v>
       </c>
       <c r="S19">
-        <v>0.03314762467477311</v>
+        <v>0.004698573812931666</v>
       </c>
       <c r="T19">
-        <v>0.03314762467477311</v>
+        <v>0.003940758152339984</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.0609366459201686</v>
+        <v>0.073389</v>
       </c>
       <c r="H20">
-        <v>0.0609366459201686</v>
+        <v>0.220167</v>
       </c>
       <c r="I20">
-        <v>0.162949852359117</v>
+        <v>0.1230817652078658</v>
       </c>
       <c r="J20">
-        <v>0.162949852359117</v>
+        <v>0.1326837164481959</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>10.02847415796949</v>
+        <v>12.0781613047245</v>
       </c>
       <c r="R20">
-        <v>10.02847415796949</v>
+        <v>72.468967828347</v>
       </c>
       <c r="S20">
-        <v>0.03860756423990468</v>
+        <v>0.02856439110604901</v>
       </c>
       <c r="T20">
-        <v>0.03860756423990468</v>
+        <v>0.02395734569668395</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.0609366459201686</v>
+        <v>0.073389</v>
       </c>
       <c r="H21">
-        <v>0.0609366459201686</v>
+        <v>0.220167</v>
       </c>
       <c r="I21">
-        <v>0.162949852359117</v>
+        <v>0.1230817652078658</v>
       </c>
       <c r="J21">
-        <v>0.162949852359117</v>
+        <v>0.1326837164481959</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>6.786592371885019</v>
+        <v>8.715995267592</v>
       </c>
       <c r="R21">
-        <v>6.786592371885019</v>
+        <v>78.443957408328</v>
       </c>
       <c r="S21">
-        <v>0.02612698570493689</v>
+        <v>0.02061299658289744</v>
       </c>
       <c r="T21">
-        <v>0.02612698570493689</v>
+        <v>0.02593260345446999</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.0609366459201686</v>
+        <v>0.073389</v>
       </c>
       <c r="H22">
-        <v>0.0609366459201686</v>
+        <v>0.220167</v>
       </c>
       <c r="I22">
-        <v>0.162949852359117</v>
+        <v>0.1230817652078658</v>
       </c>
       <c r="J22">
-        <v>0.162949852359117</v>
+        <v>0.1326837164481959</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>5.119997594956151</v>
+        <v>6.203715792273</v>
       </c>
       <c r="R22">
-        <v>5.119997594956151</v>
+        <v>55.833442130457</v>
       </c>
       <c r="S22">
-        <v>0.01971093836826023</v>
+        <v>0.01467155138356555</v>
       </c>
       <c r="T22">
-        <v>0.01971093836826023</v>
+        <v>0.01845784636706157</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.0609366459201686</v>
+        <v>0.073389</v>
       </c>
       <c r="H23">
-        <v>0.0609366459201686</v>
+        <v>0.220167</v>
       </c>
       <c r="I23">
-        <v>0.162949852359117</v>
+        <v>0.1230817652078658</v>
       </c>
       <c r="J23">
-        <v>0.162949852359117</v>
+        <v>0.1326837164481959</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>4.814074097302041</v>
+        <v>5.844384509615</v>
       </c>
       <c r="R23">
-        <v>4.814074097302041</v>
+        <v>52.599460586535</v>
       </c>
       <c r="S23">
-        <v>0.01853319578228653</v>
+        <v>0.01382174659660129</v>
       </c>
       <c r="T23">
-        <v>0.01853319578228653</v>
+        <v>0.0173887320116874</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.0609366459201686</v>
+        <v>0.073389</v>
       </c>
       <c r="H24">
-        <v>0.0609366459201686</v>
+        <v>0.220167</v>
       </c>
       <c r="I24">
-        <v>0.162949852359117</v>
+        <v>0.1230817652078658</v>
       </c>
       <c r="J24">
-        <v>0.162949852359117</v>
+        <v>0.1326837164481959</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>7.073206366451283</v>
+        <v>8.933883979475999</v>
       </c>
       <c r="R24">
-        <v>7.073206366451283</v>
+        <v>80.404955815284</v>
       </c>
       <c r="S24">
-        <v>0.02723039067292788</v>
+        <v>0.02112829508130491</v>
       </c>
       <c r="T24">
-        <v>0.02723039067292788</v>
+        <v>0.02658088530743319</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.073389</v>
+      </c>
+      <c r="H25">
+        <v>0.220167</v>
+      </c>
+      <c r="I25">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J25">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.9082645</v>
+      </c>
+      <c r="N25">
+        <v>279.816529</v>
+      </c>
+      <c r="O25">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P25">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q25">
+        <v>10.2677276233905</v>
+      </c>
+      <c r="R25">
+        <v>61.606365740343</v>
+      </c>
+      <c r="S25">
+        <v>0.02428278445744762</v>
+      </c>
+      <c r="T25">
+        <v>0.02036630361085977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.191582</v>
+      </c>
+      <c r="I26">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J26">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>164.5772705</v>
+      </c>
+      <c r="N26">
+        <v>329.154541</v>
+      </c>
+      <c r="O26">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P26">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q26">
+        <v>10.51001421231033</v>
+      </c>
+      <c r="R26">
+        <v>63.060085273862</v>
+      </c>
+      <c r="S26">
+        <v>0.02485578300507833</v>
+      </c>
+      <c r="T26">
+        <v>0.02084688533368809</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.191582</v>
+      </c>
+      <c r="I27">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J27">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>118.764328</v>
+      </c>
+      <c r="N27">
+        <v>356.292984</v>
+      </c>
+      <c r="O27">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P27">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q27">
+        <v>7.584369162298666</v>
+      </c>
+      <c r="R27">
+        <v>68.259322460688</v>
+      </c>
+      <c r="S27">
+        <v>0.01793674397772898</v>
+      </c>
+      <c r="T27">
+        <v>0.02256568893164857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.191582</v>
+      </c>
+      <c r="I28">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J28">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N28">
+        <v>253.595871</v>
+      </c>
+      <c r="O28">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P28">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q28">
+        <v>5.398267128658</v>
+      </c>
+      <c r="R28">
+        <v>48.584404157922</v>
+      </c>
+      <c r="S28">
+        <v>0.01276669599515938</v>
+      </c>
+      <c r="T28">
+        <v>0.01606140394652419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.191582</v>
+      </c>
+      <c r="I29">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J29">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N29">
+        <v>238.907105</v>
+      </c>
+      <c r="O29">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P29">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q29">
+        <v>5.085588998901111</v>
+      </c>
+      <c r="R29">
+        <v>45.77030099011</v>
+      </c>
+      <c r="S29">
+        <v>0.01202722413654212</v>
+      </c>
+      <c r="T29">
+        <v>0.01513109619635593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.191582</v>
+      </c>
+      <c r="I30">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J30">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>121.733284</v>
+      </c>
+      <c r="N30">
+        <v>365.199852</v>
+      </c>
+      <c r="O30">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P30">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q30">
+        <v>7.773968671762665</v>
+      </c>
+      <c r="R30">
+        <v>69.96571804586399</v>
+      </c>
+      <c r="S30">
+        <v>0.01838513959070413</v>
+      </c>
+      <c r="T30">
+        <v>0.02312980223634181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.191582</v>
+      </c>
+      <c r="I31">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J31">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>8.934635043146333</v>
+      </c>
+      <c r="R31">
+        <v>53.607810258878</v>
+      </c>
+      <c r="S31">
+        <v>0.02113007131825718</v>
+      </c>
+      <c r="T31">
+        <v>0.01772207995919342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.0774725</v>
+      </c>
+      <c r="H32">
+        <v>0.154945</v>
+      </c>
+      <c r="I32">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J32">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>164.5772705</v>
+      </c>
+      <c r="N32">
+        <v>329.154541</v>
+      </c>
+      <c r="O32">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P32">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q32">
+        <v>12.75021258881125</v>
+      </c>
+      <c r="R32">
+        <v>51.000850355245</v>
+      </c>
+      <c r="S32">
+        <v>0.03015376677653847</v>
+      </c>
+      <c r="T32">
+        <v>0.01686025121372729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.0774725</v>
+      </c>
+      <c r="H33">
+        <v>0.154945</v>
+      </c>
+      <c r="I33">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J33">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>118.764328</v>
+      </c>
+      <c r="N33">
+        <v>356.292984</v>
+      </c>
+      <c r="O33">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P33">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q33">
+        <v>9.20096940098</v>
+      </c>
+      <c r="R33">
+        <v>55.20581640588</v>
+      </c>
+      <c r="S33">
+        <v>0.02175994192274757</v>
+      </c>
+      <c r="T33">
+        <v>0.01825036105434899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.0774725</v>
+      </c>
+      <c r="H34">
+        <v>0.154945</v>
+      </c>
+      <c r="I34">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J34">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N34">
+        <v>253.595871</v>
+      </c>
+      <c r="O34">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P34">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q34">
+        <v>6.548902038682501</v>
+      </c>
+      <c r="R34">
+        <v>39.293412232095</v>
+      </c>
+      <c r="S34">
+        <v>0.01548790369896418</v>
+      </c>
+      <c r="T34">
+        <v>0.01298991676929038</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.0609366459201686</v>
-      </c>
-      <c r="H25">
-        <v>0.0609366459201686</v>
-      </c>
-      <c r="I25">
-        <v>0.162949852359117</v>
-      </c>
-      <c r="J25">
-        <v>0.162949852359117</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q25">
-        <v>8.50455211162482</v>
-      </c>
-      <c r="R25">
-        <v>8.50455211162482</v>
-      </c>
-      <c r="S25">
-        <v>0.03274077759080078</v>
-      </c>
-      <c r="T25">
-        <v>0.03274077759080078</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.0774725</v>
+      </c>
+      <c r="H35">
+        <v>0.154945</v>
+      </c>
+      <c r="I35">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J35">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N35">
+        <v>238.907105</v>
+      </c>
+      <c r="O35">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P35">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q35">
+        <v>6.169576897370833</v>
+      </c>
+      <c r="R35">
+        <v>37.017461384225</v>
+      </c>
+      <c r="S35">
+        <v>0.01459081419838387</v>
+      </c>
+      <c r="T35">
+        <v>0.01223751552935228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.0774725</v>
+      </c>
+      <c r="H36">
+        <v>0.154945</v>
+      </c>
+      <c r="I36">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J36">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>121.733284</v>
+      </c>
+      <c r="N36">
+        <v>365.199852</v>
+      </c>
+      <c r="O36">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P36">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q36">
+        <v>9.430981844689999</v>
+      </c>
+      <c r="R36">
+        <v>56.58589106813999</v>
+      </c>
+      <c r="S36">
+        <v>0.02230391258480692</v>
+      </c>
+      <c r="T36">
+        <v>0.01870659669233008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.0774725</v>
+      </c>
+      <c r="H37">
+        <v>0.154945</v>
+      </c>
+      <c r="I37">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J37">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>139.9082645</v>
+      </c>
+      <c r="N37">
+        <v>279.816529</v>
+      </c>
+      <c r="O37">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P37">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q37">
+        <v>10.83904302147625</v>
+      </c>
+      <c r="R37">
+        <v>43.356172085905</v>
+      </c>
+      <c r="S37">
+        <v>0.02563392359726404</v>
+      </c>
+      <c r="T37">
+        <v>0.01433301499763665</v>
       </c>
     </row>
   </sheetData>
